--- a/CRC READY/FN.xlsx
+++ b/CRC READY/FN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Science Project\Desktop\AA_Bar\Project-Gorny\CRC READY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E3ABB0-9C73-4D6D-BAA2-6FE50605E819}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA69EBD1-E2CB-46A3-9EBF-38144EF65525}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="630" windowWidth="28770" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
